--- a/SUMMARY/07-10-2014 - FP&SAV - Scheffer - lots of changes/simulation_summary_07-10-2014.xlsx
+++ b/SUMMARY/07-10-2014 - FP&SAV - Scheffer - lots of changes/simulation_summary_07-10-2014.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>Functions used:</t>
   </si>
@@ -145,9 +145,6 @@
     <t>all</t>
   </si>
   <si>
-    <t>7/10/2014 ~ 10:15AM</t>
-  </si>
-  <si>
     <t>inputTEMPLATEj.xls</t>
   </si>
   <si>
@@ -245,6 +242,12 @@
   </si>
   <si>
     <t>0.02, 0.04</t>
+  </si>
+  <si>
+    <t>7/14/2014 ~ 8:00AM</t>
+  </si>
+  <si>
+    <t>7/14/2014 ~ 10:00AM</t>
   </si>
 </sst>
 </file>
@@ -335,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -345,10 +348,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -367,9 +372,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -675,7 +677,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -694,7 +696,7 @@
         <v>38</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>19</v>
@@ -704,14 +706,16 @@
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="E2" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
-      <c r="B3" s="10"/>
+      <c r="B3" s="9"/>
       <c r="E3" s="6" t="s">
         <v>21</v>
       </c>
@@ -737,7 +741,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>28</v>
@@ -748,7 +752,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -756,7 +760,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>19</v>
@@ -778,18 +782,18 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>3</v>
@@ -798,10 +802,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="3" t="s">
@@ -813,10 +817,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>4</v>
@@ -827,10 +831,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>5</v>
@@ -841,10 +845,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>7</v>
@@ -855,7 +859,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>8</v>
@@ -917,8 +921,8 @@
       <c r="B22" s="4">
         <v>12</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>60</v>
+      <c r="C22" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>17</v>
@@ -929,13 +933,13 @@
     </row>
     <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="4">
         <v>7</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>63</v>
+      <c r="C23" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>18</v>
@@ -946,13 +950,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" s="4">
         <v>2</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>22</v>
@@ -963,13 +967,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" s="4">
         <v>2</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>23</v>
@@ -986,7 +990,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>25</v>
@@ -1023,7 +1027,7 @@
         <v>37</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F29" s="4">
         <v>0.04</v>
@@ -1031,11 +1035,11 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F30" s="4">
         <v>0.4</v>
@@ -1051,7 +1055,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E32" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F32" s="4">
         <v>0.23956648940669542</v>
@@ -1059,7 +1063,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E33" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F33" s="4">
         <v>0.25</v>
@@ -1067,7 +1071,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E34" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F34" s="4">
         <v>0.25</v>
@@ -1075,7 +1079,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E35" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F35" s="4">
         <v>0.25</v>
@@ -1083,7 +1087,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E36" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F36" s="4">
         <v>0.25</v>
@@ -1091,7 +1095,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E37" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>42</v>
@@ -1099,7 +1103,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E38" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F38" s="4">
         <v>600</v>
